--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
-  <si>
-    <t>число мест</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>водитель</t>
   </si>
@@ -35,9 +32,6 @@
     <t>кондуктор</t>
   </si>
   <si>
-    <t>сотрудники</t>
-  </si>
-  <si>
     <t>автобус</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>диспечер</t>
-  </si>
-  <si>
     <t>М.М.М</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
     <t>П.Т.Г</t>
   </si>
   <si>
-    <t>С.П.А</t>
-  </si>
-  <si>
     <t>В.О.В</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>год рожд.</t>
   </si>
   <si>
-    <t>Должность_id</t>
-  </si>
-  <si>
     <t>Водитель</t>
   </si>
   <si>
@@ -107,21 +92,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>Тел.id</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>kol_mest_id</t>
-  </si>
-  <si>
     <t>телефон</t>
   </si>
   <si>
-    <t>Чей телефон</t>
-  </si>
-  <si>
     <t>номер</t>
   </si>
   <si>
@@ -132,13 +105,61 @@
   </si>
   <si>
     <t>домашний</t>
+  </si>
+  <si>
+    <t>Гос номер</t>
+  </si>
+  <si>
+    <t>пр415р</t>
+  </si>
+  <si>
+    <t>ре515с</t>
+  </si>
+  <si>
+    <t>но425х</t>
+  </si>
+  <si>
+    <t>год выпуска</t>
+  </si>
+  <si>
+    <t>пробег</t>
+  </si>
+  <si>
+    <t>ресовый номер</t>
+  </si>
+  <si>
+    <t>Маршрутный лист</t>
+  </si>
+  <si>
+    <t>автобус_id</t>
+  </si>
+  <si>
+    <t>кол.рейсов</t>
+  </si>
+  <si>
+    <t>водитель_id</t>
+  </si>
+  <si>
+    <t>кондуктор_id</t>
+  </si>
+  <si>
+    <t>выручка</t>
+  </si>
+  <si>
+    <t>должность_id</t>
+  </si>
+  <si>
+    <t>сотрудник_id</t>
+  </si>
+  <si>
+    <t>стаж, лет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +168,32 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +206,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -194,16 +275,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,410 +606,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>123</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>123</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2004</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C10" s="3">
+        <v>1999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>125</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="18">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>124</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="3">
+        <v>20056</v>
+      </c>
+      <c r="N10" s="3">
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>168</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="18">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>125</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2006</v>
+      </c>
+      <c r="N11" s="3">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>175</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2003</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>169</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C14" s="3">
+        <v>2004</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>798</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <v>7</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>856</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>563</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>10</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="21">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>9</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7896</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>15</v>
+      </c>
+      <c r="M17" s="14">
+        <v>3</v>
+      </c>
+      <c r="N17" s="21">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="19">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>9</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2</v>
+      </c>
+      <c r="N18" s="21">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1998</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>123</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>123</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1999</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>125</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2</v>
-      </c>
-      <c r="N10" s="3">
-        <v>124</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>168</v>
-      </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3</v>
-      </c>
-      <c r="N11" s="3">
-        <v>125</v>
-      </c>
-      <c r="O11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>175</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="J22" s="15">
+        <v>1</v>
+      </c>
+      <c r="K22" s="16">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>6</v>
+      </c>
+      <c r="J23" s="15">
+        <v>2</v>
+      </c>
+      <c r="K23" s="16">
+        <v>2</v>
+      </c>
+      <c r="L23" s="11">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="20">
+        <v>3</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2002</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>169</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="H24" s="4">
+        <v>7</v>
+      </c>
+      <c r="J24" s="15">
+        <v>3</v>
+      </c>
+      <c r="K24" s="16">
+        <v>2</v>
+      </c>
+      <c r="L24" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2003</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>798</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2004</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>856</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>563</v>
-      </c>
-      <c r="J16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="3">
-        <v>2</v>
-      </c>
-      <c r="N16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17">
-        <v>7896</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>542</v>
-      </c>
-      <c r="J18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>256</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>1</v>
+      <c r="M24" s="3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
